--- a/Results/3_jointAssociations.xlsx
+++ b/Results/3_jointAssociations.xlsx
@@ -6,47 +6,106 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="modelLevel1" sheetId="1" r:id="rId2"/>
-    <sheet name="modelLevel2" sheetId="2" r:id="rId4"/>
+    <sheet name="maxCosinorPaee_m1" sheetId="1" r:id="rId2"/>
+    <sheet name="maxCosinorPaee_m2" sheetId="2" r:id="rId4"/>
+    <sheet name="minCosinorPaee_m1" sheetId="3" r:id="rId5"/>
+    <sheet name="minCosinorPaee_m2" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>outcomeVar</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
-    <t>Women</t>
-  </si>
-  <si>
-    <t>Men</t>
-  </si>
-  <si>
-    <t>Diff</t>
-  </si>
-  <si>
-    <t>outcomeVar</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
-    <t>Women</t>
-  </si>
-  <si>
-    <t>Men</t>
-  </si>
-  <si>
-    <t>Diff</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+  <si>
+    <t>outcomeVar</t>
+  </si>
+  <si>
+    <t>Estimate: Women</t>
+  </si>
+  <si>
+    <t>Count: Women</t>
+  </si>
+  <si>
+    <t>Estimate: Men</t>
+  </si>
+  <si>
+    <t>Count: Men</t>
+  </si>
+  <si>
+    <t>outcomeVar</t>
+  </si>
+  <si>
+    <t>Estimate: Women</t>
+  </si>
+  <si>
+    <t>Count: Women</t>
+  </si>
+  <si>
+    <t>Estimate: Men</t>
+  </si>
+  <si>
+    <t>Count: Men</t>
+  </si>
+  <si>
+    <t>outcomeVar</t>
+  </si>
+  <si>
+    <t>Estimate: Women</t>
+  </si>
+  <si>
+    <t>Count: Women</t>
+  </si>
+  <si>
+    <t>Estimate: Men</t>
+  </si>
+  <si>
+    <t>Count: Men</t>
+  </si>
+  <si>
+    <t>outcomeVar</t>
+  </si>
+  <si>
+    <t>Estimate: Women</t>
+  </si>
+  <si>
+    <t>Count: Women</t>
+  </si>
+  <si>
+    <t>Estimate: Men</t>
+  </si>
+  <si>
+    <t>Count: Men</t>
   </si>
   <si>
     <t>fatFreeMass</t>
+  </si>
+  <si>
+    <t>-0.588 (-0.825, -0.351)**</t>
+  </si>
+  <si>
+    <t>5870</t>
+  </si>
+  <si>
+    <t>-0.157 (-0.383, 0.069)</t>
+  </si>
+  <si>
+    <t>3834</t>
+  </si>
+  <si>
+    <t>fatFreeMass</t>
+  </si>
+  <si>
+    <t>-0.560 (-1.535, 0.414)</t>
+  </si>
+  <si>
+    <t>5870</t>
+  </si>
+  <si>
+    <t>1.326 (0.368, 2.284)**</t>
+  </si>
+  <si>
+    <t>3834</t>
   </si>
 </sst>
 </file>
@@ -112,33 +171,114 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E1"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
         <v>10</v>
       </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E1"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Results/3_jointAssociations.xlsx
+++ b/Results/3_jointAssociations.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>outcomeVar</t>
   </si>
@@ -152,114 +152,6 @@
   </si>
   <si>
     <t>Midpoint value: Men</t>
-  </si>
-  <si>
-    <t>fatFreeMass</t>
-  </si>
-  <si>
-    <t>5754</t>
-  </si>
-  <si>
-    <t>3792</t>
-  </si>
-  <si>
-    <t>fatFreeMass</t>
-  </si>
-  <si>
-    <t>-0.006 (-0.009, -0.003)**</t>
-  </si>
-  <si>
-    <t>-0.001 (-0.003, 0.001)</t>
-  </si>
-  <si>
-    <t>fatFreeMass</t>
-  </si>
-  <si>
-    <t>-0.006 (-0.018, 0.007)</t>
-  </si>
-  <si>
-    <t>0.012 (0.003, 0.021)**</t>
-  </si>
-  <si>
-    <t>fatFreeMass</t>
-  </si>
-  <si>
-    <t>0.027 (0.002, 0.052)*</t>
-  </si>
-  <si>
-    <t>0.68</t>
-  </si>
-  <si>
-    <t>12.68</t>
-  </si>
-  <si>
-    <t>42.41</t>
-  </si>
-  <si>
-    <t>0.007 (-0.010, 0.025)</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>16.00</t>
-  </si>
-  <si>
-    <t>57.78</t>
-  </si>
-  <si>
-    <t>fatFreeMass</t>
-  </si>
-  <si>
-    <t>5754</t>
-  </si>
-  <si>
-    <t>3792</t>
-  </si>
-  <si>
-    <t>fatFreeMass</t>
-  </si>
-  <si>
-    <t>0.006 (0.004, 0.008)**</t>
-  </si>
-  <si>
-    <t>0.005 (0.004, 0.007)**</t>
-  </si>
-  <si>
-    <t>fatFreeMass</t>
-  </si>
-  <si>
-    <t>0.031 (0.021, 0.041)**</t>
-  </si>
-  <si>
-    <t>0.026 (0.019, 0.033)**</t>
-  </si>
-  <si>
-    <t>fatFreeMass</t>
-  </si>
-  <si>
-    <t>0.035 (0.013, 0.057)**</t>
-  </si>
-  <si>
-    <t>3.12</t>
-  </si>
-  <si>
-    <t>15.12</t>
-  </si>
-  <si>
-    <t>42.82</t>
-  </si>
-  <si>
-    <t>0.014 (0.000, 0.028)*</t>
-  </si>
-  <si>
-    <t>3.20</t>
-  </si>
-  <si>
-    <t>15.20</t>
-  </si>
-  <si>
-    <t>58.13</t>
   </si>
 </sst>
 </file>
@@ -303,7 +195,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G1"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -329,36 +221,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2">
-        <v>0.00041242364709346126</v>
-      </c>
-      <c r="C2">
-        <v>1.4542957030816141e-06</v>
-      </c>
-      <c r="D2">
-        <v>0.26064243382945745</v>
-      </c>
-      <c r="E2">
-        <v>0.042195347560814271</v>
-      </c>
-      <c r="F2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" t="s">
-        <v>46</v>
-      </c>
-    </row>
   </sheetData>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -372,24 +241,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" t="s">
-        <v>49</v>
-      </c>
-    </row>
   </sheetData>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -403,24 +261,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" t="s">
-        <v>52</v>
-      </c>
-    </row>
   </sheetData>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G1"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -446,36 +293,13 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2">
-        <v>3.8235991831113551e-67</v>
-      </c>
-      <c r="C2">
-        <v>0.31071780838160196</v>
-      </c>
-      <c r="D2">
-        <v>0.0029783570387238727</v>
-      </c>
-      <c r="E2">
-        <v>0.28713572696635381</v>
-      </c>
-      <c r="F2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" t="s">
-        <v>64</v>
-      </c>
-    </row>
   </sheetData>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -489,24 +313,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" t="s">
-        <v>67</v>
-      </c>
-    </row>
   </sheetData>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -520,24 +333,13 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" t="s">
-        <v>70</v>
-      </c>
-    </row>
   </sheetData>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I1"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -569,42 +371,13 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I2" t="s">
-        <v>61</v>
-      </c>
-    </row>
   </sheetData>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I1"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -636,35 +409,6 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H2" t="s">
-        <v>78</v>
-      </c>
-      <c r="I2" t="s">
-        <v>79</v>
-      </c>
-    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/Results/3_jointAssociations.xlsx
+++ b/Results/3_jointAssociations.xlsx
@@ -6,60 +6,18 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="waldBlockTest_m1" sheetId="1" r:id="rId2"/>
-    <sheet name="maxCosinorPaee_m1" sheetId="2" r:id="rId4"/>
-    <sheet name="minCosinorPaee_m1" sheetId="3" r:id="rId5"/>
-    <sheet name="waldBlockTest_m2" sheetId="4" r:id="rId6"/>
-    <sheet name="maxCosinorPaee_m2" sheetId="5" r:id="rId7"/>
-    <sheet name="minCosinorPaee_m2" sheetId="6" r:id="rId8"/>
-    <sheet name="CosinorAcro_m1" sheetId="7" r:id="rId9"/>
-    <sheet name="CosinorAcro_m2" sheetId="8" r:id="rId10"/>
+    <sheet name="waldBlockTest_m2" sheetId="1" r:id="rId2"/>
+    <sheet name="maxCosinorPaee_m2" sheetId="2" r:id="rId4"/>
+    <sheet name="minCosinorPaee_m2" sheetId="3" r:id="rId5"/>
+    <sheet name="CosinorAcro_m1" sheetId="4" r:id="rId6"/>
+    <sheet name="CosinorAcro_m2" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
-  <si>
-    <t>outcomeVar</t>
-  </si>
-  <si>
-    <t>Pvalue: CosinorPaee block</t>
-  </si>
-  <si>
-    <t>Pvalue: CosinorPaee#sex block</t>
-  </si>
-  <si>
-    <t>Pvalue: CosinorAcro block</t>
-  </si>
-  <si>
-    <t>Pvalue: CosinorAcro#sex block</t>
-  </si>
-  <si>
-    <t>Count: Women</t>
-  </si>
-  <si>
-    <t>Count: Men</t>
-  </si>
-  <si>
-    <t>outcomeVar</t>
-  </si>
-  <si>
-    <t>Estimate: Women</t>
-  </si>
-  <si>
-    <t>Estimate: Men</t>
-  </si>
-  <si>
-    <t>outcomeVar</t>
-  </si>
-  <si>
-    <t>Estimate: Women</t>
-  </si>
-  <si>
-    <t>Estimate: Men</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>outcomeVar</t>
   </si>
@@ -267,7 +225,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:I1"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -292,6 +250,12 @@
       <c r="G1" t="s">
         <v>19</v>
       </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>
@@ -299,115 +263,37 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" t="s">
+  <dimension ref="A1:I1"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
         <v>22</v>
       </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
+      <c r="B1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>25</v>
       </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I1"/>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
+      <c r="E1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I1"/>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I1" t="s">
-        <v>43</v>
-      </c>
     </row>
   </sheetData>
 </worksheet>
